--- a/数据挖掘实战-英文数据集，词云，高频词，情感/新_媒体数据.xlsx
+++ b/数据挖掘实战-英文数据集，词云，高频词，情感/新_媒体数据.xlsx
@@ -1338,10 +1338,10 @@
     <t>{'neg': 0.513, 'neu': 0.342, 'pos': 0.146, 'compound': -0.9657}</t>
   </si>
   <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>neg</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1802,7 @@
         <v>0.673</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3146,7 +3146,7 @@
         <v>0.724</v>
       </c>
       <c r="J45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3210,7 +3210,7 @@
         <v>0.673</v>
       </c>
       <c r="J47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:10">
